--- a/data/Sample mass data (all sites, all years).xlsx
+++ b/data/Sample mass data (all sites, all years).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CFCT" sheetId="2" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="322">
   <si>
     <t>Year</t>
   </si>
@@ -1168,9 +1168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1194,15 +1191,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1210,8 +1210,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1496,9 +1496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,29 +1506,29 @@
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>2012</v>
       </c>
       <c r="B2" t="s">
@@ -1540,13 +1540,13 @@
       <c r="D2" s="1">
         <v>247</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="E2" s="7" t="str">
         <f>IF(AND(ISNUMBER(C2),ISNUMBER(D2)), 1-D2/C2, "-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -1556,13 +1556,13 @@
       <c r="D3" s="1">
         <v>222</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1572,13 +1572,13 @@
       <c r="D4" s="1">
         <v>322</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1588,77 +1588,77 @@
       <c r="D5" s="1">
         <v>357</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
         <v>752</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
         <v>686</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5">
         <v>601</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
         <v>643</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1668,13 +1668,13 @@
       <c r="D10" s="1">
         <v>1220</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1684,13 +1684,13 @@
       <c r="D11" s="1">
         <v>1125</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -1700,13 +1700,13 @@
       <c r="D12" s="1">
         <v>1358</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -1716,77 +1716,77 @@
       <c r="D13" s="1">
         <v>1299</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
         <v>1413</v>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
         <v>1310</v>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5">
         <v>1863</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5">
         <v>1605</v>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -1796,13 +1796,13 @@
       <c r="D18" s="1">
         <v>501</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1812,80 +1812,80 @@
       <c r="D19" s="1">
         <v>501</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="14">
         <v>2013</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>726</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>195</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>0.73140495867768596</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>652</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>172</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>0.73619631901840488</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>636</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>178</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>0.72012578616352196</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>876</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>221</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>0.74771689497716887</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C24" s="1">
@@ -1894,13 +1894,13 @@
       <c r="D24" s="1">
         <v>390</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>0.62750716332378231</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="14"/>
       <c r="B25" t="s">
         <v>210</v>
       </c>
@@ -1910,13 +1910,13 @@
       <c r="D25" s="1">
         <v>287</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>0.67423382519863795</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="14"/>
       <c r="B26" t="s">
         <v>211</v>
       </c>
@@ -1926,13 +1926,13 @@
       <c r="D26" s="1">
         <v>333</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>0.63446761800219531</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="14"/>
       <c r="B27" t="s">
         <v>212</v>
       </c>
@@ -1942,147 +1942,147 @@
       <c r="D27" s="1">
         <v>419</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>0.63691507798960134</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>302</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="9" t="str">
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>310</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="9" t="str">
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>348</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="9" t="str">
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>346</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="9" t="str">
+      <c r="D31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>268</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>352</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>398</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>381</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="14">
         <v>2014</v>
       </c>
       <c r="B36" t="s">
@@ -2094,13 +2094,13 @@
       <c r="D36" s="1">
         <v>313</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>0.46219931271477666</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="14"/>
       <c r="B37" t="s">
         <v>222</v>
       </c>
@@ -2110,13 +2110,13 @@
       <c r="D37" s="1">
         <v>215</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <f t="shared" si="0"/>
         <v>0.41416893732970028</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>223</v>
       </c>
@@ -2126,13 +2126,13 @@
       <c r="D38" s="1">
         <v>341</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <f t="shared" si="0"/>
         <v>0.51699716713881028</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="14"/>
       <c r="B39" t="s">
         <v>224</v>
       </c>
@@ -2142,81 +2142,81 @@
       <c r="D39" s="1">
         <v>435</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <f t="shared" si="0"/>
         <v>0.61021505376344087</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <f>3209-71</f>
         <v>3138</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>620</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <f t="shared" si="0"/>
         <v>0.80242192479286167</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <f>2717-71</f>
         <v>2646</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>670</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f t="shared" si="0"/>
         <v>0.74678760393046106</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <f>3301-71</f>
         <v>3230</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>718</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f t="shared" si="0"/>
         <v>0.77770897832817343</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <f>4912-71</f>
         <v>4841</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>1012</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <f t="shared" si="0"/>
         <v>0.79095228258624251</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="14"/>
       <c r="B44" t="s">
         <v>229</v>
       </c>
@@ -2226,13 +2226,13 @@
       <c r="D44" s="1">
         <v>892</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <f t="shared" si="0"/>
         <v>0.6645355396765702</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="14"/>
       <c r="B45" t="s">
         <v>230</v>
       </c>
@@ -2242,13 +2242,13 @@
       <c r="D45" s="1">
         <v>759</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <f t="shared" si="0"/>
         <v>0.66266666666666674</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="14"/>
       <c r="B46" t="s">
         <v>231</v>
       </c>
@@ -2258,13 +2258,13 @@
       <c r="D46" s="1">
         <v>801</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <f t="shared" si="0"/>
         <v>0.6672206065641878</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="14"/>
       <c r="B47" t="s">
         <v>232</v>
       </c>
@@ -2274,77 +2274,77 @@
       <c r="D47" s="1">
         <v>923</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <f t="shared" si="0"/>
         <v>0.70763382958504906</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>3191</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>1228</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <f t="shared" si="0"/>
         <v>0.61516765904105297</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>2848</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>1106</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <f t="shared" si="0"/>
         <v>0.6116573033707865</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>2964</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>1121</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <f t="shared" si="0"/>
         <v>0.62179487179487181</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>4942</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>1639</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <f t="shared" si="0"/>
         <v>0.66835289356535821</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="14"/>
       <c r="B52" t="s">
         <v>237</v>
       </c>
@@ -2354,13 +2354,13 @@
       <c r="D52" s="1">
         <v>1374</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <f t="shared" si="0"/>
         <v>0.22938867077958502</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="14"/>
       <c r="B53" t="s">
         <v>238</v>
       </c>
@@ -2370,13 +2370,13 @@
       <c r="D53" s="1">
         <v>1433</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <f t="shared" si="0"/>
         <v>0.28493013972055892</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="14"/>
       <c r="B54" t="s">
         <v>239</v>
       </c>
@@ -2386,13 +2386,13 @@
       <c r="D54" s="1">
         <v>1572</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <f t="shared" si="0"/>
         <v>0.31977498918217218</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="14"/>
       <c r="B55" t="s">
         <v>240</v>
       </c>
@@ -2402,24 +2402,24 @@
       <c r="D55" s="1">
         <v>1968</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <f t="shared" si="0"/>
         <v>0.4141113426615064</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <f>1234-71</f>
         <v>1163</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="9" t="str">
+      <c r="D56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
@@ -2428,73 +2428,73 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <f>1142-71</f>
         <v>1071</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="9" t="str">
+      <c r="D57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <f>1770-71</f>
         <v>1699</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="9" t="str">
+      <c r="D58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <f>1976-71</f>
         <v>1905</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="9" t="str">
+      <c r="D59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <f>1046-71</f>
         <v>975</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <f>1014-71</f>
         <v>943</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <f t="shared" si="0"/>
         <v>3.2820512820512793E-2</v>
       </c>
@@ -2503,364 +2503,396 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <f>1251-71</f>
         <v>1180</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <f>1210-71</f>
         <v>1139</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <f t="shared" si="0"/>
         <v>3.4745762711864359E-2</v>
       </c>
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <f>1738-71</f>
         <v>1667</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <f>1664-71</f>
         <v>1593</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <f t="shared" si="0"/>
         <v>4.439112177564486E-2</v>
       </c>
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <f>1729-71</f>
         <v>1658</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <f>1630-71</f>
         <v>1559</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <f t="shared" si="0"/>
         <v>5.9710494571773243E-2</v>
       </c>
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="14">
         <v>2015</v>
       </c>
       <c r="B64" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C64" s="1">
+        <v>168</v>
+      </c>
+      <c r="D64" s="1">
+        <v>24</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="0"/>
+        <v>0.85714285714285721</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="14"/>
       <c r="B65" t="s">
         <v>242</v>
       </c>
-      <c r="E65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C65" s="1">
+        <v>82</v>
+      </c>
+      <c r="D65" s="1">
+        <v>11</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="0"/>
+        <v>0.86585365853658536</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="14"/>
       <c r="B66" t="s">
         <v>243</v>
       </c>
-      <c r="E66" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C66" s="1">
+        <v>66</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" si="0"/>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="14"/>
       <c r="B67" t="s">
         <v>244</v>
       </c>
-      <c r="E67" s="8" t="str">
+      <c r="C67" s="1">
+        <v>94</v>
+      </c>
+      <c r="D67" s="1">
+        <v>13</v>
+      </c>
+      <c r="E67" s="7">
         <f t="shared" ref="E67:E91" si="1">IF(AND(ISNUMBER(C67),ISNUMBER(D67)), 1-D67/C67, "-")</f>
-        <v>-</v>
+        <v>0.86170212765957444</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="9" t="str">
+      <c r="C68" s="5">
+        <v>2275</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="9" t="str">
+      <c r="C69" s="5">
+        <v>1343</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="9" t="str">
+      <c r="C70" s="5">
+        <v>983</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="9" t="str">
+      <c r="C71" s="5">
+        <v>1298</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="14"/>
       <c r="B72" t="s">
         <v>249</v>
       </c>
-      <c r="E72" s="8" t="str">
+      <c r="E72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="14"/>
       <c r="B73" t="s">
         <v>250</v>
       </c>
-      <c r="E73" s="8" t="str">
+      <c r="E73" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="14"/>
       <c r="B74" t="s">
         <v>251</v>
       </c>
-      <c r="E74" s="8" t="str">
+      <c r="E74" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="14"/>
       <c r="B75" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="8" t="str">
+      <c r="E75" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="9" t="str">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="9" t="str">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="9" t="str">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="9" t="str">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="14"/>
       <c r="B80" t="s">
         <v>257</v>
       </c>
-      <c r="E80" s="8" t="str">
+      <c r="E80" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="14"/>
       <c r="B81" t="s">
         <v>258</v>
       </c>
-      <c r="E81" s="8" t="str">
+      <c r="E81" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="14"/>
       <c r="B82" t="s">
         <v>259</v>
       </c>
-      <c r="E82" s="8" t="str">
+      <c r="E82" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="14"/>
       <c r="B83" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="8" t="str">
+      <c r="E83" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="9" t="str">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="9" t="str">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="9" t="str">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="9" t="str">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="14"/>
       <c r="B88" t="s">
         <v>265</v>
       </c>
-      <c r="E88" s="8" t="str">
+      <c r="E88" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="14"/>
       <c r="B89" t="s">
         <v>266</v>
       </c>
-      <c r="E89" s="8" t="str">
+      <c r="E89" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="14"/>
       <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="E90" s="8" t="str">
+      <c r="E90" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="14"/>
       <c r="B91" t="s">
         <v>268</v>
       </c>
-      <c r="E91" s="8" t="str">
+      <c r="E91" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -2885,8 +2917,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,29 +2927,29 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>2012</v>
       </c>
       <c r="B2" t="s">
@@ -2929,13 +2961,13 @@
       <c r="D2" s="1">
         <v>116</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="E2" s="7" t="str">
         <f>IF(AND(ISNUMBER(C2),ISNUMBER(D2)), 1-D2/C2, "-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -2945,13 +2977,13 @@
       <c r="D3" s="1">
         <v>181</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -2961,13 +2993,13 @@
       <c r="D4" s="1">
         <v>161</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2977,77 +3009,77 @@
       <c r="D5" s="1">
         <v>150</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
         <v>390</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
         <v>314</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5">
         <v>452</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
         <v>410</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3057,13 +3089,13 @@
       <c r="D10" s="1">
         <v>954</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3073,13 +3105,13 @@
       <c r="D11" s="1">
         <v>740</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3089,13 +3121,13 @@
       <c r="D12" s="1">
         <v>774</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -3105,77 +3137,77 @@
       <c r="D13" s="1">
         <v>721</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
         <v>1276</v>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
         <v>1837</v>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5">
         <v>1438</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5">
         <v>1574</v>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -3185,13 +3217,13 @@
       <c r="D18" s="1">
         <v>1405</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3201,13 +3233,13 @@
       <c r="D19" s="1">
         <v>1484</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -3217,13 +3249,13 @@
       <c r="D20" s="1">
         <v>1327</v>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -3233,45 +3265,45 @@
       <c r="D21" s="1">
         <v>1464</v>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5">
         <v>417</v>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
         <v>589</v>
       </c>
-      <c r="E23" s="9" t="str">
+      <c r="E23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="14">
         <v>2013</v>
       </c>
       <c r="B24" t="s">
@@ -3283,13 +3315,13 @@
       <c r="D24" s="1">
         <v>145</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>0.76910828025477707</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="14"/>
       <c r="B25" t="s">
         <v>76</v>
       </c>
@@ -3299,13 +3331,13 @@
       <c r="D25" s="1">
         <v>266</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>0.73584905660377364</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="14"/>
       <c r="B26" t="s">
         <v>77</v>
       </c>
@@ -3315,13 +3347,13 @@
       <c r="D26" s="1">
         <v>258</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>0.76133209990749307</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="14"/>
       <c r="B27" t="s">
         <v>78</v>
       </c>
@@ -3331,71 +3363,71 @@
       <c r="D27" s="1">
         <v>216</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>0.76419213973799127</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>796</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>232</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>0.70854271356783927</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>910</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>328</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>0.63956043956043951</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>1209</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>404</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>0.6658395368072787</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>777</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>230</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>0.70398970398970406</v>
       </c>
@@ -3404,7 +3436,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="14"/>
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -3414,13 +3446,13 @@
       <c r="D32" s="1">
         <v>452</v>
       </c>
-      <c r="E32" s="8" t="str">
+      <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -3430,13 +3462,13 @@
       <c r="D33" s="1">
         <v>440</v>
       </c>
-      <c r="E33" s="8" t="str">
+      <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
         <v>85</v>
       </c>
@@ -3446,13 +3478,13 @@
       <c r="D34" s="1">
         <v>484</v>
       </c>
-      <c r="E34" s="8" t="str">
+      <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="14"/>
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -3462,13 +3494,13 @@
       <c r="D35" s="1">
         <v>730</v>
       </c>
-      <c r="E35" s="8" t="str">
+      <c r="E35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="14"/>
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -3478,16 +3510,16 @@
       <c r="D36" s="1">
         <v>429</v>
       </c>
-      <c r="E36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="14"/>
       <c r="B37" t="s">
         <v>88</v>
       </c>
@@ -3497,14 +3529,14 @@
       <c r="D37" s="1">
         <v>264</v>
       </c>
-      <c r="E37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F37" s="2"/>
+      <c r="E37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>89</v>
       </c>
@@ -3514,14 +3546,14 @@
       <c r="D38" s="1">
         <v>333</v>
       </c>
-      <c r="E38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F38" s="2"/>
+      <c r="E38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="14"/>
       <c r="B39" t="s">
         <v>90</v>
       </c>
@@ -3531,84 +3563,84 @@
       <c r="D39" s="1">
         <v>565</v>
       </c>
-      <c r="E39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="E39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="14">
         <v>2014</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <f>235-69</f>
         <v>166</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>161</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <f t="shared" si="0"/>
         <v>3.0120481927710885E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <f>248-69</f>
         <v>179</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>167</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f t="shared" si="0"/>
         <v>6.7039106145251437E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <f>228-69</f>
         <v>159</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>152</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f t="shared" si="0"/>
         <v>4.4025157232704393E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <f>299-69</f>
         <v>230</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>211</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <f t="shared" si="0"/>
         <v>8.260869565217388E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="14"/>
       <c r="B44" t="s">
         <v>225</v>
       </c>
@@ -3619,13 +3651,13 @@
       <c r="D44" s="1">
         <v>186</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <f t="shared" si="0"/>
         <v>0.80191693290734822</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="14"/>
       <c r="B45" t="s">
         <v>226</v>
       </c>
@@ -3636,13 +3668,13 @@
       <c r="D45" s="1">
         <v>416</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <f t="shared" si="0"/>
         <v>0.77464788732394363</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="14"/>
       <c r="B46" t="s">
         <v>227</v>
       </c>
@@ -3653,13 +3685,13 @@
       <c r="D46" s="1">
         <v>502</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <f t="shared" si="0"/>
         <v>0.76983035304906</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="14"/>
       <c r="B47" t="s">
         <v>228</v>
       </c>
@@ -3670,81 +3702,81 @@
       <c r="D47" s="1">
         <v>563</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <f t="shared" si="0"/>
         <v>0.76783505154639176</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>2843</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <f>738-70</f>
         <v>668</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <f t="shared" si="0"/>
         <v>0.76503693281744634</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>2300</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <f>666-70</f>
         <v>596</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <f t="shared" si="0"/>
         <v>0.74086956521739133</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>2196</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <f>599-70</f>
         <v>529</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <f t="shared" si="0"/>
         <v>0.75910746812386154</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>1814</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <f>542-70</f>
         <v>472</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <f t="shared" si="0"/>
         <v>0.73980154355016536</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="14"/>
       <c r="B52" t="s">
         <v>233</v>
       </c>
@@ -3752,16 +3784,16 @@
         <f>3053-70</f>
         <v>2983</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="13">
         <v>1016</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <f t="shared" si="0"/>
         <v>0.65940328528327186</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="14"/>
       <c r="B53" t="s">
         <v>234</v>
       </c>
@@ -3769,16 +3801,16 @@
         <f>2752-70</f>
         <v>2682</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="13">
         <v>969</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <f t="shared" si="0"/>
         <v>0.63870246085011184</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="14"/>
       <c r="B54" t="s">
         <v>235</v>
       </c>
@@ -3786,16 +3818,16 @@
         <f>2376-70</f>
         <v>2306</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="13">
         <v>827</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <f t="shared" si="0"/>
         <v>0.64137033824804857</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="14"/>
       <c r="B55" t="s">
         <v>236</v>
       </c>
@@ -3803,84 +3835,84 @@
         <f>2968-70</f>
         <v>2898</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="13">
         <v>1098</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <f t="shared" si="0"/>
         <v>0.62111801242236031</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <f>2440-71</f>
         <v>2369</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>1374</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <f t="shared" si="0"/>
         <v>0.42000844238075141</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <f>2446-70</f>
         <v>2376</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>1461</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <f t="shared" si="0"/>
         <v>0.38510101010101006</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <f>2254-70</f>
         <v>2184</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>1279</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <f t="shared" si="0"/>
         <v>0.41437728937728935</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <f>2647-70</f>
         <v>2577</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>1535</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <f t="shared" si="0"/>
         <v>0.40434613892122628</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="14"/>
       <c r="B60" t="s">
         <v>282</v>
       </c>
@@ -3891,7 +3923,7 @@
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="8" t="str">
+      <c r="E60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
@@ -3900,7 +3932,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="14"/>
       <c r="B61" t="s">
         <v>283</v>
       </c>
@@ -3911,14 +3943,14 @@
       <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="8" t="str">
+      <c r="E61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="14"/>
       <c r="B62" t="s">
         <v>284</v>
       </c>
@@ -3929,14 +3961,14 @@
       <c r="D62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="8" t="str">
+      <c r="E62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="14"/>
       <c r="B63" t="s">
         <v>285</v>
       </c>
@@ -3947,14 +3979,14 @@
       <c r="D63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="8" t="str">
+      <c r="E63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>277</v>
       </c>
@@ -3966,7 +3998,7 @@
         <f>1308-70</f>
         <v>1238</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <f t="shared" si="0"/>
         <v>4.6224961479198745E-2</v>
       </c>
@@ -3975,7 +4007,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="14"/>
       <c r="B65" t="s">
         <v>278</v>
       </c>
@@ -3987,14 +4019,14 @@
         <f>1375-70</f>
         <v>1305</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <f t="shared" si="0"/>
         <v>3.6189069423929077E-2</v>
       </c>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="14"/>
       <c r="B66" t="s">
         <v>279</v>
       </c>
@@ -4006,14 +4038,14 @@
         <f>1142-70</f>
         <v>1072</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="7">
         <f t="shared" si="0"/>
         <v>3.7701974865350096E-2</v>
       </c>
       <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="14"/>
       <c r="B67" t="s">
         <v>280</v>
       </c>
@@ -4025,385 +4057,413 @@
         <f>1026-70</f>
         <v>956</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="7">
         <f t="shared" ref="E67:E95" si="1">IF(AND(ISNUMBER(C67),ISNUMBER(D67)), 1-D67/C67, "-")</f>
         <v>7.8109932497589241E-2</v>
       </c>
       <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="14">
         <v>2015</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="9" t="str">
+      <c r="C68" s="5">
+        <v>26</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>0.88461538461538458</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="9" t="str">
+      <c r="C69" s="5">
+        <v>34</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+      <c r="E69" s="8">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="9" t="str">
+      <c r="C70" s="5">
+        <v>62</v>
+      </c>
+      <c r="D70" s="5">
+        <v>6</v>
+      </c>
+      <c r="E70" s="8">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>0.90322580645161288</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="9" t="str">
+      <c r="C71" s="5">
+        <v>25</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3</v>
+      </c>
+      <c r="E71" s="8">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="14"/>
       <c r="B72" t="s">
         <v>290</v>
       </c>
-      <c r="E72" s="8" t="str">
+      <c r="C72" s="1">
+        <v>376</v>
+      </c>
+      <c r="E72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="14"/>
       <c r="B73" t="s">
         <v>291</v>
       </c>
-      <c r="E73" s="8" t="str">
+      <c r="C73" s="1">
+        <v>1181</v>
+      </c>
+      <c r="E73" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="14"/>
       <c r="B74" t="s">
         <v>292</v>
       </c>
-      <c r="E74" s="8" t="str">
+      <c r="C74" s="1">
+        <v>719</v>
+      </c>
+      <c r="E74" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="14"/>
       <c r="B75" t="s">
         <v>293</v>
       </c>
-      <c r="E75" s="8" t="str">
+      <c r="C75" s="1">
+        <v>756</v>
+      </c>
+      <c r="E75" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="9" t="str">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="9" t="str">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="9" t="str">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="9" t="str">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="14"/>
       <c r="B80" t="s">
         <v>298</v>
       </c>
-      <c r="E80" s="8" t="str">
+      <c r="E80" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="14"/>
       <c r="B81" t="s">
         <v>299</v>
       </c>
-      <c r="E81" s="8" t="str">
+      <c r="E81" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="14"/>
       <c r="B82" t="s">
         <v>300</v>
       </c>
-      <c r="E82" s="8" t="str">
+      <c r="E82" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="14"/>
       <c r="B83" t="s">
         <v>301</v>
       </c>
-      <c r="E83" s="8" t="str">
+      <c r="E83" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="9" t="str">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="9" t="str">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="9" t="str">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="9" t="str">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="14"/>
       <c r="B88" t="s">
         <v>306</v>
       </c>
-      <c r="E88" s="8" t="str">
+      <c r="E88" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="14"/>
       <c r="B89" t="s">
         <v>307</v>
       </c>
-      <c r="E89" s="8" t="str">
+      <c r="E89" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="14"/>
       <c r="B90" t="s">
         <v>308</v>
       </c>
-      <c r="E90" s="8" t="str">
+      <c r="E90" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="14"/>
       <c r="B91" t="s">
         <v>309</v>
       </c>
-      <c r="E91" s="8" t="str">
+      <c r="E91" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="14"/>
+      <c r="B92" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="9" t="str">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="14"/>
+      <c r="B93" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="9" t="str">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="14"/>
+      <c r="B94" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="9" t="str">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="14"/>
+      <c r="B95" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="9" t="str">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="14"/>
       <c r="B96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="14"/>
       <c r="B97" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="14"/>
       <c r="B98" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="14"/>
       <c r="B99" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="14"/>
+      <c r="B100" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="9"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="14"/>
+      <c r="B101" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="9"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="14"/>
+      <c r="B102" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="9"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="14"/>
+      <c r="B103" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="9"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4426,8 +4486,8 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,29 +4496,29 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
@@ -4470,13 +4530,13 @@
       <c r="D2" s="1">
         <v>341</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>IF(AND(ISNUMBER(C2),ISNUMBER(D2)), 1-D2/C2, "-")</f>
         <v>0.68041237113402064</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -4486,13 +4546,13 @@
       <c r="D3" s="1">
         <v>458</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E29" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E65" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
         <v>0.68326417704011067</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -4502,13 +4562,13 @@
       <c r="D4" s="1">
         <v>468</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>0.6462585034013606</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>48</v>
       </c>
@@ -4518,77 +4578,77 @@
       <c r="D5" s="1">
         <v>419</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0.68731343283582091</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1631</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>593</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0.63641937461679943</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1180</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>393</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>0.66694915254237286</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1179</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>404</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>0.65733672603901616</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>857</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>272</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0.68261376896149351</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -4598,13 +4658,13 @@
       <c r="D10" s="1">
         <v>662</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0.40945584299732385</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -4614,13 +4674,13 @@
       <c r="D11" s="1">
         <v>663</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0.43187660668380468</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -4630,13 +4690,13 @@
       <c r="D12" s="1">
         <v>481</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0.44649021864211735</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -4646,77 +4706,77 @@
       <c r="D13" s="1">
         <v>460</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.47904869762174407</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>701</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>408</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>0.41797432239657628</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>743</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>400</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>0.46164199192462985</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>893</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>468</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>0.47592385218365063</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>943</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>530</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>0.43796394485683987</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -4726,13 +4786,13 @@
       <c r="D18" s="1">
         <v>504</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>5.6179775280898903E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -4742,13 +4802,13 @@
       <c r="D19" s="1">
         <v>454</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>6.0041407867494789E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -4758,13 +4818,13 @@
       <c r="D20" s="1">
         <v>530</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>4.8473967684021568E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>65</v>
       </c>
@@ -4774,77 +4834,77 @@
       <c r="D21" s="1">
         <v>578</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>4.1459369817578806E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>636</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>603</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>5.1886792452830233E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>543</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>517</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <f t="shared" si="0"/>
         <v>4.7882136279926324E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>607</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>578</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <f t="shared" si="0"/>
         <v>4.7775947281713305E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>574</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>553</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>3.6585365853658569E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="14"/>
       <c r="B26" t="s">
         <v>70</v>
       </c>
@@ -4854,16 +4914,16 @@
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C26),ISNUMBER(#REF!)), 1-#REF!/C26, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="14"/>
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -4873,14 +4933,14 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C27),ISNUMBER(#REF!)), 1-#REF!/C27, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="14"/>
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -4890,14 +4950,14 @@
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C28),ISNUMBER(#REF!)), 1-#REF!/C28, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="14"/>
       <c r="B29" t="s">
         <v>73</v>
       </c>
@@ -4907,411 +4967,519 @@
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C29),ISNUMBER(#REF!)), 1-#REF!/C29, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="14">
         <v>2015</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C30),ISNUMBER(#REF!)), 1-#REF!/C30, "-")</f>
-        <v>-</v>
+      <c r="C30" s="5">
+        <v>193</v>
+      </c>
+      <c r="D30" s="5">
+        <v>49</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.74611398963730569</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C31),ISNUMBER(#REF!)), 1-#REF!/C31, "-")</f>
-        <v>-</v>
+      <c r="C31" s="5">
+        <v>56</v>
+      </c>
+      <c r="D31" s="5">
+        <v>16</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C32),ISNUMBER(#REF!)), 1-#REF!/C32, "-")</f>
-        <v>-</v>
+      <c r="C32" s="5">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C33),ISNUMBER(#REF!)), 1-#REF!/C33, "-")</f>
-        <v>-</v>
+      <c r="C33" s="5">
+        <v>21</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C34),ISNUMBER(#REF!)), 1-#REF!/C34, "-")</f>
-        <v>-</v>
+      <c r="C34" s="1">
+        <v>288</v>
+      </c>
+      <c r="D34" s="1">
+        <v>69</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="14"/>
       <c r="B35" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C35),ISNUMBER(#REF!)), 1-#REF!/C35, "-")</f>
-        <v>-</v>
+      <c r="C35" s="1">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1">
+        <v>26</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.76576576576576572</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="14"/>
       <c r="B36" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C36),ISNUMBER(#REF!)), 1-#REF!/C36, "-")</f>
-        <v>-</v>
+      <c r="C36" s="1">
+        <v>97</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>0.75257731958762886</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="14"/>
       <c r="B37" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C37),ISNUMBER(#REF!)), 1-#REF!/C37, "-")</f>
-        <v>-</v>
+      <c r="C37" s="1">
+        <v>170</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>0.75294117647058822</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C38),ISNUMBER(#REF!)), 1-#REF!/C38, "-")</f>
-        <v>-</v>
+      <c r="C38" s="5">
+        <v>409</v>
+      </c>
+      <c r="D38" s="5">
+        <v>116</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.71638141809290956</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C39),ISNUMBER(#REF!)), 1-#REF!/C39, "-")</f>
-        <v>-</v>
+      <c r="C39" s="5">
+        <v>390</v>
+      </c>
+      <c r="D39" s="5">
+        <v>112</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.71282051282051284</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C40),ISNUMBER(#REF!)), 1-#REF!/C40, "-")</f>
-        <v>-</v>
+      <c r="C40" s="5">
+        <v>253</v>
+      </c>
+      <c r="D40" s="5">
+        <v>77</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C41),ISNUMBER(#REF!)), 1-#REF!/C41, "-")</f>
-        <v>-</v>
+      <c r="C41" s="5">
+        <v>302</v>
+      </c>
+      <c r="D41" s="5">
+        <v>90</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.70198675496688745</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="14"/>
       <c r="B42" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C42),ISNUMBER(#REF!)), 1-#REF!/C42, "-")</f>
-        <v>-</v>
+      <c r="C42" s="1">
+        <v>680</v>
+      </c>
+      <c r="D42" s="1">
+        <v>235</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="0"/>
+        <v>0.65441176470588236</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="14"/>
       <c r="B43" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C43),ISNUMBER(#REF!)), 1-#REF!/C43, "-")</f>
-        <v>-</v>
+      <c r="C43" s="1">
+        <v>369</v>
+      </c>
+      <c r="D43" s="1">
+        <v>139</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62330623306233068</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="14"/>
       <c r="B44" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C44),ISNUMBER(#REF!)), 1-#REF!/C44, "-")</f>
-        <v>-</v>
+      <c r="C44" s="1">
+        <v>256</v>
+      </c>
+      <c r="D44" s="1">
+        <v>102</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="0"/>
+        <v>0.6015625</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="14"/>
       <c r="B45" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C45),ISNUMBER(#REF!)), 1-#REF!/C45, "-")</f>
-        <v>-</v>
+      <c r="C45" s="1">
+        <v>442</v>
+      </c>
+      <c r="D45" s="1">
+        <v>163</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63122171945701355</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C46),ISNUMBER(#REF!)), 1-#REF!/C46, "-")</f>
-        <v>-</v>
+      <c r="C46" s="5">
+        <v>1438</v>
+      </c>
+      <c r="D46" s="5">
+        <v>546</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.62030598052851182</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C47),ISNUMBER(#REF!)), 1-#REF!/C47, "-")</f>
-        <v>-</v>
+      <c r="C47" s="5">
+        <v>838</v>
+      </c>
+      <c r="D47" s="5">
+        <v>287</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65751789976133646</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C48),ISNUMBER(#REF!)), 1-#REF!/C48, "-")</f>
-        <v>-</v>
+      <c r="C48" s="5">
+        <v>528</v>
+      </c>
+      <c r="D48" s="5">
+        <v>185</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.64962121212121215</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C49),ISNUMBER(#REF!)), 1-#REF!/C49, "-")</f>
-        <v>-</v>
+      <c r="C49" s="5">
+        <v>547</v>
+      </c>
+      <c r="D49" s="5">
+        <v>179</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67276051188299824</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="14"/>
       <c r="B50" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C50),ISNUMBER(#REF!)), 1-#REF!/C50, "-")</f>
+      <c r="C50" s="1">
+        <v>1021</v>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="14"/>
       <c r="B51" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C51),ISNUMBER(#REF!)), 1-#REF!/C51, "-")</f>
+      <c r="C51" s="1">
+        <v>1179</v>
+      </c>
+      <c r="E51" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="14"/>
       <c r="B52" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C52),ISNUMBER(#REF!)), 1-#REF!/C52, "-")</f>
+      <c r="C52" s="1">
+        <v>827</v>
+      </c>
+      <c r="E52" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="14"/>
       <c r="B53" t="s">
         <v>196</v>
       </c>
-      <c r="E53" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C53),ISNUMBER(#REF!)), 1-#REF!/C53, "-")</f>
+      <c r="C53" s="1">
+        <v>1081</v>
+      </c>
+      <c r="E53" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C54),ISNUMBER(#REF!)), 1-#REF!/C54, "-")</f>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C55),ISNUMBER(#REF!)), 1-#REF!/C55, "-")</f>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C56),ISNUMBER(#REF!)), 1-#REF!/C56, "-")</f>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C57),ISNUMBER(#REF!)), 1-#REF!/C57, "-")</f>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="14"/>
       <c r="B58" t="s">
         <v>201</v>
       </c>
-      <c r="E58" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C58),ISNUMBER(#REF!)), 1-#REF!/C58, "-")</f>
+      <c r="E58" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="14"/>
       <c r="B59" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C59),ISNUMBER(#REF!)), 1-#REF!/C59, "-")</f>
+      <c r="E59" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="14"/>
       <c r="B60" t="s">
         <v>203</v>
       </c>
-      <c r="E60" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C60),ISNUMBER(#REF!)), 1-#REF!/C60, "-")</f>
+      <c r="E60" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="14"/>
       <c r="B61" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="8" t="str">
-        <f>IF(AND(ISNUMBER(C61),ISNUMBER(#REF!)), 1-#REF!/C61, "-")</f>
+      <c r="E61" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C62),ISNUMBER(#REF!)), 1-#REF!/C62, "-")</f>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C63),ISNUMBER(#REF!)), 1-#REF!/C63, "-")</f>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C64),ISNUMBER(#REF!)), 1-#REF!/C64, "-")</f>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C65),ISNUMBER(#REF!)), 1-#REF!/C65, "-")</f>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
@@ -5329,9 +5497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,29 +5507,29 @@
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
@@ -5373,13 +5541,13 @@
       <c r="D2" s="1">
         <v>647</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>IF(AND(ISNUMBER(C2),ISNUMBER(D2)), 1-D2/C2, "-")</f>
         <v>0.66888433981576256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>93</v>
       </c>
@@ -5389,13 +5557,13 @@
       <c r="D3" s="1">
         <v>681</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f t="shared" ref="E3:E66" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
         <v>0.68428372739916554</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>94</v>
       </c>
@@ -5405,13 +5573,13 @@
       <c r="D4" s="1">
         <v>574</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>0.70744138634046894</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>95</v>
       </c>
@@ -5421,77 +5589,77 @@
       <c r="D5" s="1">
         <v>519</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0.67110266159695819</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1380</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>717</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>0.48043478260869565</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1629</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>906</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>0.44383057090239408</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1566</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>690</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>0.55938697318007669</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1577</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>785</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>0.50221940393151554</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>100</v>
       </c>
@@ -5501,13 +5669,13 @@
       <c r="D10" s="1">
         <v>798</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0.19718309859154926</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -5517,13 +5685,13 @@
       <c r="D11" s="1">
         <v>788</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0.17139852786540488</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -5533,13 +5701,13 @@
       <c r="D12" s="1">
         <v>841</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0.3589939024390244</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>103</v>
       </c>
@@ -5549,83 +5717,83 @@
       <c r="D13" s="1">
         <v>880</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0.19266055045871555</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>889</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>489</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>0.44994375703037115</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>793</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>399</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>0.49684741488020179</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>851</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>428</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>0.49706227967097527</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>762</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>405</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>0.46850393700787396</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="14">
         <v>2014</v>
       </c>
       <c r="B18" t="s">
@@ -5637,13 +5805,13 @@
       <c r="D18" s="1">
         <v>155</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>0.83904465212876422</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>110</v>
       </c>
@@ -5653,13 +5821,13 @@
       <c r="D19" s="1">
         <v>140</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>0.84478935698447888</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
         <v>111</v>
       </c>
@@ -5669,13 +5837,13 @@
       <c r="D20" s="1">
         <v>71</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>0.85569105691056913</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -5685,13 +5853,13 @@
       <c r="D21" s="1">
         <v>66</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>0.82539682539682535</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
         <v>113</v>
       </c>
@@ -5701,13 +5869,13 @@
       <c r="D22" s="1">
         <v>101</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>0.83442622950819678</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="14"/>
       <c r="B23" t="s">
         <v>114</v>
       </c>
@@ -5717,13 +5885,13 @@
       <c r="D23" s="1">
         <v>75</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>0.81481481481481488</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="14"/>
       <c r="B24" t="s">
         <v>115</v>
       </c>
@@ -5733,125 +5901,125 @@
       <c r="D24" s="1">
         <v>62</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>0.83727034120734911</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>2691</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>386</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>0.85655890003716095</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1464</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>262</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>0.82103825136612019</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>1214</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>269</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>0.7784184514003295</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>834</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>163</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>0.80455635491606714</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1486</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>279</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>0.81224764468371469</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>720</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>142</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>0.80277777777777781</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>1251</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>251</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>0.79936051159072741</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="14"/>
       <c r="B32" t="s">
         <v>123</v>
       </c>
@@ -5862,13 +6030,13 @@
       <c r="D32" s="1">
         <v>679</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <f t="shared" si="0"/>
         <v>0.75291120815138279</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
         <v>124</v>
       </c>
@@ -5879,13 +6047,13 @@
       <c r="D33" s="1">
         <v>542</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <f t="shared" si="0"/>
         <v>0.67718880285884453</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
         <v>125</v>
       </c>
@@ -5896,13 +6064,13 @@
       <c r="D34" s="1">
         <v>331</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <f t="shared" si="0"/>
         <v>0.54595336076817558</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="14"/>
       <c r="B35" t="s">
         <v>126</v>
       </c>
@@ -5913,13 +6081,13 @@
       <c r="D35" s="1">
         <v>179</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <f t="shared" si="0"/>
         <v>0.61995753715498936</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="14"/>
       <c r="B36" t="s">
         <v>127</v>
       </c>
@@ -5930,13 +6098,13 @@
       <c r="D36" s="1">
         <v>472</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>0.70882171499074653</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="14"/>
       <c r="B37" t="s">
         <v>128</v>
       </c>
@@ -5947,13 +6115,13 @@
       <c r="D37" s="1">
         <v>182</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <f t="shared" si="0"/>
         <v>0.55061728395061726</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
         <v>129</v>
       </c>
@@ -5964,520 +6132,612 @@
       <c r="D38" s="1">
         <v>412</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <f t="shared" si="0"/>
         <v>0.66531275385865152</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>937</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <f>815-70</f>
         <v>745</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <f t="shared" si="0"/>
         <v>0.20490928495197436</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>409</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <f>450-70</f>
         <v>380</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <f t="shared" si="0"/>
         <v>7.0904645476772665E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>354</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <f>398-70</f>
         <v>328</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f t="shared" si="0"/>
         <v>7.3446327683615809E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>177</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <f>234-70</f>
         <v>164</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f t="shared" si="0"/>
         <v>7.3446327683615809E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>249</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <f>307-70</f>
         <v>237</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <f t="shared" si="0"/>
         <v>4.8192771084337394E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>125</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <f>188-70</f>
         <v>118</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <f t="shared" si="0"/>
         <v>5.600000000000005E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>207</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <f>264-70</f>
         <v>194</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <f t="shared" si="0"/>
         <v>6.2801932367149704E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="14">
         <v>2015</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C46" s="1">
+        <v>321</v>
+      </c>
+      <c r="D46" s="1">
+        <v>78</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="0"/>
+        <v>0.7570093457943925</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="14"/>
       <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C47" s="1">
+        <v>136</v>
+      </c>
+      <c r="D47" s="1">
+        <v>33</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="0"/>
+        <v>0.75735294117647056</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="14"/>
       <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C48" s="1">
+        <v>334</v>
+      </c>
+      <c r="D48" s="1">
+        <v>78</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="0"/>
+        <v>0.76646706586826352</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="14"/>
       <c r="B49" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C49" s="1">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1">
+        <v>31</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="0"/>
+        <v>0.7615384615384615</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C50" s="5">
+        <v>331</v>
+      </c>
+      <c r="D50" s="5">
+        <v>97</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.70694864048338368</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C51" s="5">
+        <v>358</v>
+      </c>
+      <c r="D51" s="5">
+        <v>92</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.74301675977653625</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C52" s="5">
+        <v>1505</v>
+      </c>
+      <c r="D52" s="5">
+        <v>292</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80598006644518272</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C53" s="5">
+        <v>565</v>
+      </c>
+      <c r="D53" s="5">
+        <v>125</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.77876106194690264</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="14"/>
       <c r="B54" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C54" s="1">
+        <v>907</v>
+      </c>
+      <c r="D54" s="1">
+        <v>258</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="0"/>
+        <v>0.71554575523704522</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="14"/>
       <c r="B55" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C55" s="1">
+        <v>913</v>
+      </c>
+      <c r="D55" s="1">
+        <v>227</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="0"/>
+        <v>0.75136911281489593</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="14"/>
       <c r="B56" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C56" s="1">
+        <v>2422</v>
+      </c>
+      <c r="D56" s="1">
+        <v>516</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="0"/>
+        <v>0.78695293146160195</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="14"/>
       <c r="B57" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="C57" s="1">
+        <v>1538</v>
+      </c>
+      <c r="D57" s="1">
+        <v>341</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77828348504551359</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="9" t="str">
+      <c r="C58" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="9" t="str">
+      <c r="C59" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="9" t="str">
+      <c r="C60" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="9" t="str">
+      <c r="C61" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="14"/>
       <c r="B62" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="8" t="str">
+      <c r="C62" s="1">
+        <v>3260</v>
+      </c>
+      <c r="E62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="14"/>
       <c r="B63" t="s">
         <v>154</v>
       </c>
-      <c r="E63" s="8" t="str">
+      <c r="C63" s="1">
+        <v>3029</v>
+      </c>
+      <c r="E63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="14"/>
       <c r="B64" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="8" t="str">
+      <c r="C64" s="1">
+        <v>4692</v>
+      </c>
+      <c r="E64" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="14"/>
       <c r="B65" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="8" t="str">
+      <c r="C65" s="1">
+        <v>4228</v>
+      </c>
+      <c r="E65" s="7" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="9" t="str">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="9" t="str">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="8" t="str">
         <f t="shared" ref="E67:E81" si="1">IF(AND(ISNUMBER(C67),ISNUMBER(D67)), 1-D67/C67, "-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="9" t="str">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="9" t="str">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="14"/>
       <c r="B70" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="8" t="str">
+      <c r="E70" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="14"/>
       <c r="B71" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="8" t="str">
+      <c r="E71" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="14"/>
       <c r="B72" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="8" t="str">
+      <c r="E72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="14"/>
       <c r="B73" t="s">
         <v>164</v>
       </c>
-      <c r="E73" s="8" t="str">
+      <c r="E73" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="5" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="9" t="str">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="9" t="str">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="9" t="str">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="9" t="str">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="14"/>
       <c r="B78" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="8" t="str">
+      <c r="E78" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="14"/>
       <c r="B79" t="s">
         <v>170</v>
       </c>
-      <c r="E79" s="8" t="str">
+      <c r="E79" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="14"/>
       <c r="B80" t="s">
         <v>171</v>
       </c>
-      <c r="E80" s="8" t="str">
+      <c r="E80" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="14"/>
       <c r="B81" t="s">
         <v>172</v>
       </c>
-      <c r="E81" s="8" t="str">
+      <c r="E81" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>

--- a/data/Sample mass data (all sites, all years).xlsx
+++ b/data/Sample mass data (all sites, all years).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REACCH\2011-reacch-biomass.git\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2011 REACCH\2011-reacch-biomass.git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
     <sheet name="LIND" sheetId="3" r:id="rId3"/>
     <sheet name="MMTN" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,100 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Patrick O'Keeffe</author>
-  </authors>
-  <commentList>
-    <comment ref="F56" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick O'Keeffe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Which one?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Patrick O'Keeffe</author>
-  </authors>
-  <commentList>
-    <comment ref="D52" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick O'Keeffe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Weight with or without bags?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F60" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick O'Keeffe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Which one?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="336">
   <si>
     <t>Year</t>
   </si>
@@ -965,10 +876,6 @@
     <t>Samp-20140802-P4B</t>
   </si>
   <si>
-    <t>Threshing 
-samples?</t>
-  </si>
-  <si>
     <t>Samp-20140802-P1A</t>
   </si>
   <si>
@@ -1087,13 +994,60 @@
   </si>
   <si>
     <t>FxBio_CFNT-4_009</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CF1-A_081712</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CF2-A_081712</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CF3-A_081712</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CF4-A_081712</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CL1-A_081712</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CL2-A_081712</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CL3-A_081712</t>
+  </si>
+  <si>
+    <t>FXBio_Gr_CL4-A_081712</t>
+  </si>
+  <si>
+    <t>Grain samples (threshed)</t>
+  </si>
+  <si>
+    <t>FxBio_MMTN-B1_004</t>
+  </si>
+  <si>
+    <t>FxBio_MMTN-B2_004</t>
+  </si>
+  <si>
+    <t>FxBio_MMTN-B3_004</t>
+  </si>
+  <si>
+    <t>Peas only (threshed); 
+some samples labeled "MSLK_?", 
+most logically all from MMTN</t>
+  </si>
+  <si>
+    <t>Threshing samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,19 +1069,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1163,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,9 +1133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1204,15 +1142,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,6 +1177,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cook Data"/>
+      <sheetName val="Clark Data"/>
+      <sheetName val="Statistical Analysis"/>
+      <sheetName val="Igor-Friendly Cook Data"/>
+      <sheetName val="Igor-Friendly Clark Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1493,24 +1462,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,9 +1495,12 @@
       <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="F1" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>2012</v>
       </c>
       <c r="B2" t="s">
@@ -1545,8 +1517,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -1557,12 +1529,12 @@
         <v>222</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E66" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+        <f t="shared" ref="E3:E82" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1577,8 +1549,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1593,8 +1565,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1609,8 +1581,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
@@ -1625,8 +1597,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1641,8 +1613,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1657,8 +1629,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1673,8 +1645,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1689,8 +1661,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -1705,8 +1677,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -1721,8 +1693,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1737,8 +1709,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1753,8 +1725,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -1770,7 +1742,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -1786,7 +1758,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -1802,7 +1774,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1818,1003 +1790,1101 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="13"/>
+      <c r="B20" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5">
+        <v>621</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5">
+        <v>545</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5">
+        <v>783</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
+        <v>708</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>2013</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C24" s="16">
         <v>726</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D24" s="16">
         <v>195</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E24" s="17">
         <f t="shared" si="0"/>
         <v>0.73140495867768596</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C25" s="16">
         <v>652</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D25" s="16">
         <v>172</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E25" s="17">
         <f t="shared" si="0"/>
         <v>0.73619631901840488</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C26" s="18">
         <v>636</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D26" s="16">
         <v>178</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E26" s="17">
         <f t="shared" si="0"/>
         <v>0.72012578616352196</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C27" s="16">
         <v>876</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D27" s="16">
         <v>221</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E27" s="17">
         <f t="shared" si="0"/>
         <v>0.74771689497716887</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="11" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C28" s="5">
         <v>1047</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D28" s="5">
         <v>390</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>0.62750716332378231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C29" s="5">
         <v>881</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D29" s="5">
         <v>287</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>0.67423382519863795</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C30" s="5">
         <v>911</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D30" s="5">
         <v>333</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>0.63446761800219531</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C31" s="5">
         <v>1154</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D31" s="5">
         <v>419</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>0.63691507798960134</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C32" s="16">
         <v>302</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4" t="s">
+      <c r="D32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C33" s="16">
         <v>310</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4" t="s">
+      <c r="D33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C34" s="16">
         <v>348</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4" t="s">
+      <c r="D34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C35" s="16">
         <v>346</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4" t="s">
+      <c r="D35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C36" s="5">
         <v>268</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="D36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C37" s="5">
         <v>352</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C38" s="5">
         <v>398</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="4" t="s">
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C39" s="5">
         <v>381</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="D39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="16">
+        <v>64.87</v>
+      </c>
+      <c r="E40" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="16">
+        <v>161.91999999999999</v>
+      </c>
+      <c r="E41" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="16">
+        <v>198.09</v>
+      </c>
+      <c r="E42" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="16">
+        <v>193.89</v>
+      </c>
+      <c r="E43" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>2014</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C44" s="5">
         <v>582</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D44" s="5">
         <v>313</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E44" s="8">
         <f t="shared" si="0"/>
         <v>0.46219931271477666</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C45" s="5">
         <v>367</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D45" s="5">
         <v>215</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E45" s="8">
         <f t="shared" si="0"/>
         <v>0.41416893732970028</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C46" s="5">
         <v>706</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D46" s="5">
         <v>341</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E46" s="8">
         <f t="shared" si="0"/>
         <v>0.51699716713881028</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C47" s="5">
         <v>1116</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D47" s="5">
         <v>435</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E47" s="8">
         <f t="shared" si="0"/>
         <v>0.61021505376344087</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="4" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C48" s="16">
         <f>3209-71</f>
         <v>3138</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D48" s="16">
         <v>620</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E48" s="17">
         <f t="shared" si="0"/>
         <v>0.80242192479286167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C49" s="16">
         <f>2717-71</f>
         <v>2646</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D49" s="16">
         <v>670</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E49" s="17">
         <f t="shared" si="0"/>
         <v>0.74678760393046106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="4" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C50" s="16">
         <f>3301-71</f>
         <v>3230</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D50" s="16">
         <v>718</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E50" s="17">
         <f t="shared" si="0"/>
         <v>0.77770897832817343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="4" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C51" s="16">
         <f>4912-71</f>
         <v>4841</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D51" s="16">
         <v>1012</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E51" s="17">
         <f t="shared" si="0"/>
         <v>0.79095228258624251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C52" s="5">
         <v>2659</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D52" s="5">
         <v>892</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E52" s="8">
         <f t="shared" si="0"/>
         <v>0.6645355396765702</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C53" s="5">
         <v>2250</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D53" s="5">
         <v>759</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E53" s="8">
         <f t="shared" si="0"/>
         <v>0.66266666666666674</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C54" s="5">
         <v>2407</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D54" s="5">
         <v>801</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E54" s="8">
         <f t="shared" si="0"/>
         <v>0.6672206065641878</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C55" s="5">
         <v>3157</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D55" s="5">
         <v>923</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E55" s="8">
         <f t="shared" si="0"/>
         <v>0.70763382958504906</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="4" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C56" s="16">
         <v>3191</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D56" s="16">
         <v>1228</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E56" s="17">
         <f t="shared" si="0"/>
         <v>0.61516765904105297</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="4" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C57" s="16">
         <v>2848</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D57" s="16">
         <v>1106</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E57" s="17">
         <f t="shared" si="0"/>
         <v>0.6116573033707865</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="4" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C58" s="16">
         <v>2964</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D58" s="16">
         <v>1121</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E58" s="17">
         <f t="shared" si="0"/>
         <v>0.62179487179487181</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="4" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C59" s="16">
         <v>4942</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D59" s="16">
         <v>1639</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E59" s="17">
         <f t="shared" si="0"/>
         <v>0.66835289356535821</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C60" s="5">
         <v>1783</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D60" s="5">
         <v>1374</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E60" s="8">
         <f t="shared" si="0"/>
         <v>0.22938867077958502</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C61" s="5">
         <v>2004</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D61" s="5">
         <v>1433</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E61" s="8">
         <f t="shared" si="0"/>
         <v>0.28493013972055892</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C62" s="5">
         <v>2311</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D62" s="5">
         <v>1572</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E62" s="8">
         <f t="shared" si="0"/>
         <v>0.31977498918217218</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C63" s="5">
         <v>3359</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D63" s="5">
         <v>1968</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E63" s="8">
         <f t="shared" si="0"/>
         <v>0.4141113426615064</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" s="16">
         <f>1234-71</f>
         <v>1163</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="D64" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" s="16">
         <f>1142-71</f>
         <v>1071</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="D65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="16">
         <f>1770-71</f>
         <v>1699</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59" s="5">
+      <c r="D66" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="16">
         <f>1976-71</f>
         <v>1905</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="4" t="s">
+      <c r="D67" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C68" s="5">
         <f>1046-71</f>
         <v>975</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D68" s="5">
         <f>1014-71</f>
         <v>943</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E68" s="8">
         <f t="shared" si="0"/>
         <v>3.2820512820512793E-2</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="4" t="s">
+      <c r="F68" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C69" s="5">
         <f>1251-71</f>
         <v>1180</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D69" s="5">
         <f>1210-71</f>
         <v>1139</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E69" s="8">
         <f t="shared" si="0"/>
         <v>3.4745762711864359E-2</v>
       </c>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="4" t="s">
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C70" s="5">
         <f>1738-71</f>
         <v>1667</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D70" s="5">
         <f>1664-71</f>
         <v>1593</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E70" s="8">
         <f t="shared" si="0"/>
         <v>4.439112177564486E-2</v>
       </c>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="4" t="s">
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C71" s="5">
         <f>1729-71</f>
         <v>1658</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D71" s="5">
         <f>1630-71</f>
         <v>1559</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E71" s="8">
         <f t="shared" si="0"/>
         <v>5.9710494571773243E-2</v>
       </c>
-      <c r="F63" s="17"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="16">
+        <v>498.8</v>
+      </c>
+      <c r="E72" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="16">
+        <v>519.49</v>
+      </c>
+      <c r="E73" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F73" s="20"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="16">
+        <v>806.93</v>
+      </c>
+      <c r="E74" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="16">
+        <v>777.95</v>
+      </c>
+      <c r="E75" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="5">
+        <v>419.02</v>
+      </c>
+      <c r="E76" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="5">
+        <v>583.72</v>
+      </c>
+      <c r="E77" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F77" s="20"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="5">
+        <v>747.9</v>
+      </c>
+      <c r="E78" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F78" s="20"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="5">
+        <v>685.9</v>
+      </c>
+      <c r="E79" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
         <v>2015</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B80" t="s">
         <v>241</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C80" s="1">
         <v>168</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D80" s="1">
         <v>24</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E80" s="7">
         <f t="shared" si="0"/>
         <v>0.85714285714285721</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" t="s">
         <v>242</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C81" s="1">
         <v>82</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D81" s="1">
         <v>11</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E81" s="7">
         <f t="shared" si="0"/>
         <v>0.86585365853658536</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C82" s="1">
         <v>66</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D82" s="1">
         <v>9</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E82" s="7">
         <f t="shared" si="0"/>
         <v>0.86363636363636365</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C83" s="1">
         <v>94</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D83" s="1">
         <v>13</v>
       </c>
-      <c r="E67" s="7">
-        <f t="shared" ref="E67:E91" si="1">IF(AND(ISNUMBER(C67),ISNUMBER(D67)), 1-D67/C67, "-")</f>
+      <c r="E83" s="7">
+        <f t="shared" ref="E83:E107" si="1">IF(AND(ISNUMBER(C83),ISNUMBER(D83)), 1-D83/C83, "-")</f>
         <v>0.86170212765957444</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="4" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C84" s="5">
         <v>2275</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1343</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="5">
-        <v>983</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1298</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" t="s">
-        <v>251</v>
-      </c>
-      <c r="E74" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" t="s">
-        <v>252</v>
-      </c>
-      <c r="E75" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" t="s">
-        <v>257</v>
-      </c>
-      <c r="E80" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" t="s">
-        <v>258</v>
-      </c>
-      <c r="E81" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" t="s">
-        <v>259</v>
-      </c>
-      <c r="E82" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" t="s">
-        <v>260</v>
-      </c>
-      <c r="E83" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2822,11 +2892,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C85" s="5"/>
+        <v>246</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1343</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2834,11 +2906,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="C86" s="5">
+        <v>983</v>
+      </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2846,11 +2920,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1298</v>
+      </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2858,80 +2934,259 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+      <c r="A88" s="13"/>
       <c r="B88" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="E90" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" t="s">
+        <v>252</v>
+      </c>
+      <c r="E91" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+      <c r="B93" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" t="s">
+        <v>257</v>
+      </c>
+      <c r="E96" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" t="s">
+        <v>260</v>
+      </c>
+      <c r="E99" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" t="s">
         <v>265</v>
       </c>
-      <c r="E88" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" t="s">
+      <c r="E104" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" t="s">
         <v>266</v>
       </c>
-      <c r="E89" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" t="s">
+      <c r="E105" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" t="s">
         <v>267</v>
       </c>
-      <c r="E90" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" t="s">
+      <c r="E106" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" t="s">
         <v>268</v>
       </c>
-      <c r="E91" s="7" t="str">
+      <c r="E107" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A64:A91"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A36:A63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F56:F59"/>
+  <mergeCells count="11">
+    <mergeCell ref="A80:A107"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="A44:A79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="F72:F75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2947,9 +3202,12 @@
       <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="F1" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>2012</v>
       </c>
       <c r="B2" t="s">
@@ -2966,8 +3224,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -2978,12 +3236,12 @@
         <v>181</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E66" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+        <f t="shared" ref="E3:E78" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -2998,8 +3256,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -3014,8 +3272,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3030,8 +3288,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3046,8 +3304,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -3062,8 +3320,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3078,8 +3336,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3094,8 +3352,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3110,8 +3368,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3126,8 +3384,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -3142,8 +3400,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -3158,8 +3416,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -3174,8 +3432,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
@@ -3191,7 +3449,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
@@ -3207,7 +3465,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -3223,7 +3481,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3239,7 +3497,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -3255,7 +3513,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -3271,7 +3529,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
@@ -3287,7 +3545,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
@@ -3303,1191 +3561,1631 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5">
+        <v>621</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="5">
+        <v>582</v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="5">
+        <v>683</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="5">
+        <v>671</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>2013</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B32" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C32" s="16">
         <v>628</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D32" s="16">
         <v>145</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E32" s="17">
         <f t="shared" si="0"/>
         <v>0.76910828025477707</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C33" s="16">
         <v>1007</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D33" s="16">
         <v>266</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
         <v>0.73584905660377364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C34" s="16">
         <v>1081</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D34" s="16">
         <v>258</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E34" s="17">
         <f t="shared" si="0"/>
         <v>0.76133209990749307</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C35" s="16">
         <v>916</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D35" s="16">
         <v>216</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E35" s="17">
         <f t="shared" si="0"/>
         <v>0.76419213973799127</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C36" s="5">
         <v>796</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D36" s="5">
         <v>232</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E36" s="8">
         <f t="shared" si="0"/>
         <v>0.70854271356783927</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C37" s="5">
         <v>910</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D37" s="5">
         <v>328</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E37" s="8">
         <f t="shared" si="0"/>
         <v>0.63956043956043951</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C38" s="5">
         <v>1209</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D38" s="5">
         <v>404</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E38" s="8">
         <f t="shared" si="0"/>
         <v>0.6658395368072787</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C39" s="5">
         <v>777</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D39" s="5">
         <v>230</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E39" s="8">
         <f t="shared" si="0"/>
         <v>0.70398970398970406</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="16">
         <v>452</v>
       </c>
-      <c r="E32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" t="s">
+      <c r="E40" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="16">
         <v>440</v>
       </c>
-      <c r="E33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" t="s">
+      <c r="E41" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="16">
         <v>484</v>
       </c>
-      <c r="E34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" t="s">
+      <c r="E42" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="16">
         <v>730</v>
       </c>
-      <c r="E35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" t="s">
+      <c r="E43" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="5">
         <v>429</v>
       </c>
-      <c r="E36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F36" s="15" t="s">
+      <c r="E44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="5">
         <v>264</v>
       </c>
-      <c r="E37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s">
+      <c r="E45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="5">
         <v>333</v>
       </c>
-      <c r="E38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" t="s">
+      <c r="E46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="5">
         <v>565</v>
       </c>
-      <c r="E39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="E47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="16">
+        <v>193.1</v>
+      </c>
+      <c r="E48" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="16">
+        <v>99.63</v>
+      </c>
+      <c r="E49" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="16">
+        <v>44.1</v>
+      </c>
+      <c r="E50" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="16">
+        <v>193.89</v>
+      </c>
+      <c r="E51" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <v>2014</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C52" s="5">
         <f>235-69</f>
         <v>166</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D52" s="5">
         <v>161</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E52" s="8">
         <f t="shared" si="0"/>
         <v>3.0120481927710885E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C53" s="5">
         <f>248-69</f>
         <v>179</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D53" s="5">
         <v>167</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E53" s="8">
         <f t="shared" si="0"/>
         <v>6.7039106145251437E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="4" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C54" s="5">
         <f>228-69</f>
         <v>159</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D54" s="5">
         <v>152</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E54" s="8">
         <f t="shared" si="0"/>
         <v>4.4025157232704393E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="4" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C55" s="5">
         <f>299-69</f>
         <v>230</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D55" s="5">
         <v>211</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E55" s="8">
         <f t="shared" si="0"/>
         <v>8.260869565217388E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C56" s="16">
         <f>1009-70</f>
         <v>939</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D56" s="16">
         <v>186</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E56" s="17">
         <f t="shared" si="0"/>
         <v>0.80191693290734822</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C57" s="16">
         <f>1916-70</f>
         <v>1846</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D57" s="16">
         <v>416</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E57" s="17">
         <f t="shared" si="0"/>
         <v>0.77464788732394363</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C58" s="16">
         <f>2251-70</f>
         <v>2181</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D58" s="16">
         <v>502</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E58" s="17">
         <f t="shared" si="0"/>
         <v>0.76983035304906</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C59" s="16">
         <f>2495-70</f>
         <v>2425</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D59" s="16">
         <v>563</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E59" s="17">
         <f t="shared" si="0"/>
         <v>0.76783505154639176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="4" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C60" s="5">
         <v>2843</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D60" s="5">
         <f>738-70</f>
         <v>668</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E60" s="8">
         <f t="shared" si="0"/>
         <v>0.76503693281744634</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="4" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C61" s="5">
         <v>2300</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D61" s="5">
         <f>666-70</f>
         <v>596</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E61" s="8">
         <f t="shared" si="0"/>
         <v>0.74086956521739133</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="4" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C62" s="5">
         <v>2196</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D62" s="5">
         <f>599-70</f>
         <v>529</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E62" s="8">
         <f t="shared" si="0"/>
         <v>0.75910746812386154</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="4" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C63" s="5">
         <v>1814</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D63" s="5">
         <f>542-70</f>
         <v>472</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E63" s="8">
         <f t="shared" si="0"/>
         <v>0.73980154355016536</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C64" s="1">
         <f>3053-70</f>
         <v>2983</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D64" s="16">
         <v>1016</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E64" s="7">
         <f t="shared" si="0"/>
         <v>0.65940328528327186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C65" s="1">
         <f>2752-70</f>
         <v>2682</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D65" s="16">
         <v>969</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E65" s="7">
         <f t="shared" si="0"/>
         <v>0.63870246085011184</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C66" s="1">
         <f>2376-70</f>
         <v>2306</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D66" s="16">
         <v>827</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E66" s="7">
         <f t="shared" si="0"/>
         <v>0.64137033824804857</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" t="s">
         <v>236</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C67" s="1">
         <f>2968-70</f>
         <v>2898</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D67" s="16">
         <v>1098</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E67" s="7">
         <f t="shared" si="0"/>
         <v>0.62111801242236031</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="4" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C68" s="5">
         <f>2440-71</f>
         <v>2369</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D68" s="5">
         <v>1374</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E68" s="8">
         <f t="shared" si="0"/>
         <v>0.42000844238075141</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="4" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C69" s="5">
         <f>2446-70</f>
         <v>2376</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D69" s="5">
         <v>1461</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E69" s="8">
         <f t="shared" si="0"/>
         <v>0.38510101010101006</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="4" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C70" s="5">
         <f>2254-70</f>
         <v>2184</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D70" s="5">
         <v>1279</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E70" s="8">
         <f t="shared" si="0"/>
         <v>0.41437728937728935</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="4" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C71" s="5">
         <f>2647-70</f>
         <v>2577</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D71" s="5">
         <v>1535</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E71" s="8">
         <f t="shared" si="0"/>
         <v>0.40434613892122628</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" s="1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="1">
         <f>1141-70</f>
         <v>1071</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="D72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="1">
         <f>1442-70</f>
         <v>1372</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="D73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F73" s="20"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="1">
         <f>1265-70</f>
         <v>1195</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" t="s">
-        <v>285</v>
-      </c>
-      <c r="C63" s="1">
+      <c r="D74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="1">
         <f>1340-70</f>
         <v>1270</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F63" s="17"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" t="s">
+      <c r="D75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C76" s="5">
         <f>1368-70</f>
         <v>1298</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D76" s="5">
         <f>1308-70</f>
         <v>1238</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E76" s="8">
         <f t="shared" si="0"/>
         <v>4.6224961479198745E-2</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" t="s">
+      <c r="F76" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C77" s="5">
         <f>1424-70</f>
         <v>1354</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D77" s="5">
         <f>1375-70</f>
         <v>1305</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E77" s="8">
         <f t="shared" si="0"/>
         <v>3.6189069423929077E-2</v>
       </c>
-      <c r="F65" s="17"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" t="s">
+      <c r="F77" s="20"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C78" s="5">
         <f>1184-70</f>
         <v>1114</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D78" s="5">
         <f>1142-70</f>
         <v>1072</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E78" s="8">
         <f t="shared" si="0"/>
         <v>3.7701974865350096E-2</v>
       </c>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" t="s">
+      <c r="F78" s="20"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C79" s="5">
         <f>1107-70</f>
         <v>1037</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D79" s="5">
         <f>1026-70</f>
         <v>956</v>
       </c>
-      <c r="E67" s="7">
-        <f t="shared" ref="E67:E95" si="1">IF(AND(ISNUMBER(C67),ISNUMBER(D67)), 1-D67/C67, "-")</f>
+      <c r="E79" s="8">
+        <f t="shared" ref="E79:E123" si="1">IF(AND(ISNUMBER(C79),ISNUMBER(D79)), 1-D79/C79, "-")</f>
         <v>7.8109932497589241E-2</v>
       </c>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="1">
+        <v>395.03</v>
+      </c>
+      <c r="E80" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="1">
+        <v>546.82000000000005</v>
+      </c>
+      <c r="E81" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="1">
+        <v>505.71</v>
+      </c>
+      <c r="E82" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F83" s="20"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="5">
+        <v>620.33000000000004</v>
+      </c>
+      <c r="E84" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="5">
+        <v>612.96</v>
+      </c>
+      <c r="E85" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F85" s="20"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="5">
+        <v>464.3</v>
+      </c>
+      <c r="E86" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F86" s="20"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="5">
+        <v>422.7</v>
+      </c>
+      <c r="E87" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F87" s="20"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
         <v>2015</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B88" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" s="16">
+        <v>26</v>
+      </c>
+      <c r="D88" s="16">
+        <v>3</v>
+      </c>
+      <c r="E88" s="17">
+        <f t="shared" si="1"/>
+        <v>0.88461538461538458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="5">
-        <v>26</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C89" s="16">
+        <v>34</v>
+      </c>
+      <c r="D89" s="16">
         <v>3</v>
       </c>
-      <c r="E68" s="8">
-        <f t="shared" si="1"/>
-        <v>0.88461538461538458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="4" t="s">
+      <c r="E89" s="17">
+        <f t="shared" si="1"/>
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="5">
-        <v>34</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C90" s="16">
+        <v>62</v>
+      </c>
+      <c r="D90" s="16">
+        <v>6</v>
+      </c>
+      <c r="E90" s="17">
+        <f t="shared" si="1"/>
+        <v>0.90322580645161288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" s="16">
+        <v>25</v>
+      </c>
+      <c r="D91" s="16">
         <v>3</v>
       </c>
-      <c r="E69" s="8">
-        <f t="shared" si="1"/>
-        <v>0.91176470588235292</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C70" s="5">
-        <v>62</v>
-      </c>
-      <c r="D70" s="5">
-        <v>6</v>
-      </c>
-      <c r="E70" s="8">
-        <f t="shared" si="1"/>
-        <v>0.90322580645161288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="4" t="s">
+      <c r="E91" s="17">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C71" s="5">
-        <v>25</v>
-      </c>
-      <c r="D71" s="5">
-        <v>3</v>
-      </c>
-      <c r="E71" s="8">
-        <f t="shared" si="1"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="C92" s="5">
         <v>376</v>
       </c>
-      <c r="E72" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" t="s">
-        <v>291</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1181</v>
-      </c>
-      <c r="E73" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" t="s">
-        <v>292</v>
-      </c>
-      <c r="C74" s="1">
-        <v>719</v>
-      </c>
-      <c r="E74" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" s="1">
-        <v>756</v>
-      </c>
-      <c r="E75" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" t="s">
-        <v>299</v>
-      </c>
-      <c r="E81" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" t="s">
-        <v>300</v>
-      </c>
-      <c r="E82" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" t="s">
-        <v>301</v>
-      </c>
-      <c r="E83" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" t="s">
-        <v>306</v>
-      </c>
-      <c r="E88" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" t="s">
-        <v>307</v>
-      </c>
-      <c r="E89" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" t="s">
-        <v>308</v>
-      </c>
-      <c r="E90" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" t="s">
-        <v>309</v>
-      </c>
-      <c r="E91" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
       <c r="B93" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C93" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1181</v>
+      </c>
       <c r="D93" s="5"/>
       <c r="E93" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
       <c r="B94" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C94" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="C94" s="5">
+        <v>719</v>
+      </c>
       <c r="D94" s="5"/>
       <c r="E94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
       <c r="B95" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C95" s="5"/>
+        <v>292</v>
+      </c>
+      <c r="C95" s="5">
+        <v>756</v>
+      </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" t="s">
-        <v>314</v>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" t="s">
-        <v>315</v>
+      <c r="A97" s="13"/>
+      <c r="B97" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" t="s">
-        <v>316</v>
+      <c r="A98" s="13"/>
+      <c r="B98" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" t="s">
-        <v>317</v>
+      <c r="A99" s="13"/>
+      <c r="B99" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="4" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="8"/>
+      <c r="E100" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="4" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="8"/>
+      <c r="E101" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="4" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="8"/>
+      <c r="E102" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="8"/>
+      <c r="E103" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+      <c r="B121" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="11"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="17"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="11"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="11"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="11"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="17"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A68:A103"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A24:A39"/>
-    <mergeCell ref="A40:A67"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F67"/>
+  <mergeCells count="12">
+    <mergeCell ref="A88:A123"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A32:A51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="A52:A87"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="F84:F87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,10 +5195,10 @@
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4516,9 +5214,12 @@
       <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="F1" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
@@ -4535,8 +5236,8 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -4547,12 +5248,12 @@
         <v>458</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E65" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
+        <f t="shared" ref="E3:E69" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
         <v>0.68326417704011067</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -4567,8 +5268,8 @@
         <v>0.6462585034013606</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>48</v>
       </c>
@@ -4583,8 +5284,8 @@
         <v>0.68731343283582091</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
@@ -4599,8 +5300,8 @@
         <v>0.63641937461679943</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
@@ -4615,8 +5316,8 @@
         <v>0.66694915254237286</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
@@ -4631,8 +5332,8 @@
         <v>0.65733672603901616</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
@@ -4647,8 +5348,8 @@
         <v>0.68261376896149351</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -4663,8 +5364,8 @@
         <v>0.40945584299732385</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -4679,8 +5380,8 @@
         <v>0.43187660668380468</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -4695,8 +5396,8 @@
         <v>0.44649021864211735</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -4711,8 +5412,8 @@
         <v>0.47904869762174407</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
@@ -4727,8 +5428,8 @@
         <v>0.41797432239657628</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
@@ -4743,8 +5444,8 @@
         <v>0.46164199192462985</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
@@ -4760,7 +5461,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
@@ -4776,7 +5477,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -4792,7 +5493,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -4808,7 +5509,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -4824,7 +5525,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>65</v>
       </c>
@@ -4840,7 +5541,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
@@ -4856,7 +5557,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
@@ -4872,7 +5573,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
@@ -4888,7 +5589,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
@@ -4904,7 +5605,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>70</v>
       </c>
@@ -4918,12 +5619,12 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -4937,10 +5638,10 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -4954,10 +5655,10 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>73</v>
       </c>
@@ -4971,388 +5672,408 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="13"/>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5">
+        <v>196</v>
+      </c>
+      <c r="D30" s="5">
+        <v>177</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6938775510204134E-2</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="5">
+        <v>178</v>
+      </c>
+      <c r="D31" s="5">
+        <v>159</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1067415730337079</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="5">
+        <v>204</v>
+      </c>
+      <c r="D32" s="5">
+        <v>185</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3137254901960786E-2</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="5">
+        <v>203</v>
+      </c>
+      <c r="D33" s="5">
+        <v>184</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3596059113300489E-2</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>2015</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B34" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C34" s="16">
         <v>193</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D34" s="16">
         <v>49</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E34" s="17">
         <f t="shared" si="0"/>
         <v>0.74611398963730569</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C35" s="16">
         <v>56</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D35" s="16">
         <v>16</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E35" s="17">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C36" s="16">
         <v>32</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D36" s="16">
         <v>6</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E36" s="17">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C37" s="16">
         <v>21</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D37" s="16">
         <v>4</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E37" s="17">
         <f t="shared" si="0"/>
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C38" s="5">
         <v>288</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D38" s="5">
         <v>69</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E38" s="8">
         <f t="shared" si="0"/>
         <v>0.76041666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C39" s="5">
         <v>111</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D39" s="5">
         <v>26</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E39" s="8">
         <f t="shared" si="0"/>
         <v>0.76576576576576572</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C40" s="5">
         <v>97</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D40" s="5">
         <v>24</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E40" s="8">
         <f t="shared" si="0"/>
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C41" s="5">
         <v>170</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D41" s="5">
         <v>42</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E41" s="8">
         <f t="shared" si="0"/>
         <v>0.75294117647058822</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="4" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C42" s="16">
         <v>409</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D42" s="16">
         <v>116</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E42" s="17">
         <f t="shared" si="0"/>
         <v>0.71638141809290956</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="4" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C43" s="16">
         <v>390</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D43" s="16">
         <v>112</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E43" s="17">
         <f t="shared" si="0"/>
         <v>0.71282051282051284</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="4" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C44" s="16">
         <v>253</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D44" s="16">
         <v>77</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E44" s="17">
         <f t="shared" si="0"/>
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C45" s="16">
         <v>302</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D45" s="16">
         <v>90</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E45" s="17">
         <f t="shared" si="0"/>
         <v>0.70198675496688745</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C46" s="5">
         <v>680</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D46" s="5">
         <v>235</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E46" s="8">
         <f t="shared" si="0"/>
         <v>0.65441176470588236</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C47" s="5">
         <v>369</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D47" s="5">
         <v>139</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E47" s="8">
         <f t="shared" si="0"/>
         <v>0.62330623306233068</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C48" s="5">
         <v>256</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D48" s="5">
         <v>102</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E48" s="8">
         <f t="shared" si="0"/>
         <v>0.6015625</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C49" s="5">
         <v>442</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D49" s="5">
         <v>163</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E49" s="8">
         <f t="shared" si="0"/>
         <v>0.63122171945701355</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="4" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C50" s="16">
         <v>1438</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D50" s="16">
         <v>546</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E50" s="17">
         <f t="shared" si="0"/>
         <v>0.62030598052851182</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="4" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C51" s="16">
         <v>838</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D51" s="16">
         <v>287</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E51" s="17">
         <f t="shared" si="0"/>
         <v>0.65751789976133646</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="4" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C52" s="16">
         <v>528</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D52" s="16">
         <v>185</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E52" s="17">
         <f t="shared" si="0"/>
         <v>0.64962121212121215</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="4" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C53" s="16">
         <v>547</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D53" s="16">
         <v>179</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E53" s="17">
         <f t="shared" si="0"/>
         <v>0.67276051188299824</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C54" s="5">
         <v>1021</v>
       </c>
-      <c r="E50" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1179</v>
-      </c>
-      <c r="E51" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="1">
-        <v>827</v>
-      </c>
-      <c r="E52" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1081</v>
-      </c>
-      <c r="E53" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5360,11 +6081,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1179</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5372,11 +6095,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="C56" s="5">
+        <v>827</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5384,11 +6109,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1081</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5396,49 +6123,57 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="E58" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -5448,9 +6183,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -5460,9 +6195,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -5472,9 +6207,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -5483,11 +6218,72 @@
         <v>-</v>
       </c>
     </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A29"/>
+  <mergeCells count="4">
     <mergeCell ref="F26:F29"/>
-    <mergeCell ref="A30:A65"/>
+    <mergeCell ref="A34:A69"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="F30:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5495,11 +6291,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5508,7 +6304,7 @@
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5527,9 +6323,12 @@
       <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
@@ -5547,7 +6346,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>93</v>
       </c>
@@ -5558,12 +6357,12 @@
         <v>681</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E66" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
+        <f t="shared" ref="E3:E73" si="0">IF(AND(ISNUMBER(C3),ISNUMBER(D3)), 1-D3/C3, "-")</f>
         <v>0.68428372739916554</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>94</v>
       </c>
@@ -5579,7 +6378,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>95</v>
       </c>
@@ -5595,7 +6394,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>96</v>
       </c>
@@ -5611,7 +6410,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>97</v>
       </c>
@@ -5627,7 +6426,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
@@ -5643,7 +6442,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>99</v>
       </c>
@@ -5659,7 +6458,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>100</v>
       </c>
@@ -5675,7 +6474,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -5691,7 +6490,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -5707,7 +6506,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>103</v>
       </c>
@@ -5723,7 +6522,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
@@ -5737,12 +6536,12 @@
         <f t="shared" si="0"/>
         <v>0.44994375703037115</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
@@ -5756,10 +6555,10 @@
         <f t="shared" si="0"/>
         <v>0.49684741488020179</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>106</v>
       </c>
@@ -5773,10 +6572,10 @@
         <f t="shared" si="0"/>
         <v>0.49706227967097527</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
@@ -5790,10 +6589,10 @@
         <f t="shared" si="0"/>
         <v>0.46850393700787396</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>2014</v>
       </c>
       <c r="B18" t="s">
@@ -5811,7 +6610,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>110</v>
       </c>
@@ -5827,7 +6626,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>111</v>
       </c>
@@ -5843,7 +6642,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -5859,7 +6658,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>113</v>
       </c>
@@ -5875,7 +6674,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" t="s">
         <v>114</v>
       </c>
@@ -5891,7 +6690,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" t="s">
         <v>115</v>
       </c>
@@ -5907,7 +6706,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>117</v>
       </c>
@@ -5923,7 +6722,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
         <v>118</v>
       </c>
@@ -5939,7 +6738,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
         <v>119</v>
       </c>
@@ -5955,7 +6754,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
         <v>120</v>
       </c>
@@ -5971,7 +6770,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
         <v>121</v>
       </c>
@@ -5987,7 +6786,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="4" t="s">
         <v>122</v>
       </c>
@@ -6003,7 +6802,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="4" t="s">
         <v>116</v>
       </c>
@@ -6019,7 +6818,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" t="s">
         <v>123</v>
       </c>
@@ -6035,8 +6834,8 @@
         <v>0.75291120815138279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
       <c r="B33" t="s">
         <v>124</v>
       </c>
@@ -6052,8 +6851,8 @@
         <v>0.67718880285884453</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
       <c r="B34" t="s">
         <v>125</v>
       </c>
@@ -6069,8 +6868,8 @@
         <v>0.54595336076817558</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
       <c r="B35" t="s">
         <v>126</v>
       </c>
@@ -6086,8 +6885,8 @@
         <v>0.61995753715498936</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
       <c r="B36" t="s">
         <v>127</v>
       </c>
@@ -6103,8 +6902,8 @@
         <v>0.70882171499074653</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
       <c r="B37" t="s">
         <v>128</v>
       </c>
@@ -6120,8 +6919,8 @@
         <v>0.55061728395061726</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
       <c r="B38" t="s">
         <v>129</v>
       </c>
@@ -6137,8 +6936,8 @@
         <v>0.66531275385865152</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
       <c r="B39" s="4" t="s">
         <v>130</v>
       </c>
@@ -6153,9 +6952,12 @@
         <f t="shared" si="0"/>
         <v>0.20490928495197436</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="F39" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
       <c r="B40" s="4" t="s">
         <v>131</v>
       </c>
@@ -6170,9 +6972,10 @@
         <f t="shared" si="0"/>
         <v>7.0904645476772665E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
       <c r="B41" s="4" t="s">
         <v>132</v>
       </c>
@@ -6187,9 +6990,10 @@
         <f t="shared" si="0"/>
         <v>7.3446327683615809E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
       <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
@@ -6204,9 +7008,10 @@
         <f t="shared" si="0"/>
         <v>7.3446327683615809E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
       <c r="B43" s="4" t="s">
         <v>134</v>
       </c>
@@ -6221,9 +7026,10 @@
         <f t="shared" si="0"/>
         <v>4.8192771084337394E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
       <c r="B44" s="4" t="s">
         <v>135</v>
       </c>
@@ -6238,9 +7044,10 @@
         <f t="shared" si="0"/>
         <v>5.600000000000005E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
       <c r="B45" s="4" t="s">
         <v>136</v>
       </c>
@@ -6255,445 +7062,495 @@
         <f t="shared" si="0"/>
         <v>6.2801932367149704E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="16">
+        <v>332.85</v>
+      </c>
+      <c r="E46" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="16">
+        <v>99.55</v>
+      </c>
+      <c r="E47" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="16">
+        <v>85.52</v>
+      </c>
+      <c r="E48" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="16">
+        <v>38.28</v>
+      </c>
+      <c r="E49" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="16">
+        <v>64.73</v>
+      </c>
+      <c r="E50" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="16">
+        <v>24.45</v>
+      </c>
+      <c r="E51" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="16">
+        <v>49.31</v>
+      </c>
+      <c r="E52" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
         <v>2015</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B53" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C53" s="5">
         <v>321</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D53" s="5">
         <v>78</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E53" s="8">
         <f t="shared" si="0"/>
         <v>0.7570093457943925</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C54" s="5">
         <v>136</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D54" s="5">
         <v>33</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E54" s="8">
         <f t="shared" si="0"/>
         <v>0.75735294117647056</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C55" s="5">
         <v>334</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D55" s="5">
         <v>78</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E55" s="8">
         <f t="shared" si="0"/>
         <v>0.76646706586826352</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C56" s="5">
         <v>130</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D56" s="5">
         <v>31</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E56" s="8">
         <f t="shared" si="0"/>
         <v>0.7615384615384615</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="4" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C57" s="16">
         <v>331</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D57" s="16">
         <v>97</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E57" s="17">
         <f t="shared" si="0"/>
         <v>0.70694864048338368</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="4" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C58" s="16">
         <v>358</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D58" s="16">
         <v>92</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E58" s="17">
         <f t="shared" si="0"/>
         <v>0.74301675977653625</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="4" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C59" s="16">
         <v>1505</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D59" s="16">
         <v>292</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E59" s="17">
         <f t="shared" si="0"/>
         <v>0.80598006644518272</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="4" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C60" s="16">
         <v>565</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D60" s="16">
         <v>125</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E60" s="17">
         <f t="shared" si="0"/>
         <v>0.77876106194690264</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C61" s="5">
         <v>907</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D61" s="5">
         <v>258</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E61" s="8">
         <f t="shared" si="0"/>
         <v>0.71554575523704522</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C62" s="5">
         <v>913</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D62" s="5">
         <v>227</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E62" s="8">
         <f t="shared" si="0"/>
         <v>0.75136911281489593</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C63" s="5">
         <v>2422</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D63" s="5">
         <v>516</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E63" s="8">
         <f t="shared" si="0"/>
         <v>0.78695293146160195</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C64" s="5">
         <v>1538</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D64" s="5">
         <v>341</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E64" s="8">
         <f t="shared" si="0"/>
         <v>0.77828348504551359</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="4" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="4" t="s">
+      <c r="C65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="4" t="s">
+      <c r="C66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="4" t="s">
+      <c r="C67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" t="s">
+      <c r="C68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C69" s="5">
         <v>3260</v>
       </c>
-      <c r="E62" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3029</v>
-      </c>
-      <c r="E63" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4692</v>
-      </c>
-      <c r="E64" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="1">
-        <v>4228</v>
-      </c>
-      <c r="E65" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="8" t="str">
-        <f t="shared" ref="E67:E81" si="1">IF(AND(ISNUMBER(C67),ISNUMBER(D67)), 1-D67/C67, "-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3029</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="5">
+        <v>4692</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="5">
+        <v>4228</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="17" t="str">
+        <f t="shared" ref="E74:E88" si="1">IF(AND(ISNUMBER(C74),ISNUMBER(D74)), 1-D74/C74, "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="E70" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -6703,51 +7560,151 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" t="s">
+      <c r="A78" s="13"/>
+      <c r="B78" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E79" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E80" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" t="s">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E81" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A45"/>
-    <mergeCell ref="A46:A81"/>
+    <mergeCell ref="A53:A88"/>
+    <mergeCell ref="A18:A52"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="F39:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
